--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574659B-B191-43B8-81DA-28206B8030B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A59B0-2E33-4B2F-AE09-EBDC722E1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27140" yWindow="-6010" windowWidth="25850" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>初期設定</t>
   </si>
@@ -128,6 +128,42 @@
   <si>
     <t xml:space="preserve">
 FANBOXにログインする際のパスワードを入力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得月数</t>
+    <rPh sb="0" eb="4">
+      <t>シュトクツキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+現在の取得年月を基準として過去何か月分の情報を取得したいかを入力してください</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シュトクネンゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カコナン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲツブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -231,20 +267,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,26 +288,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,197 +617,204 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="34.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="77.875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="34.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
     <row r="2" spans="1:5" ht="24.75">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="33.75">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="33.75">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="33.75">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="24.75">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="33.75">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10">
         <v>10000</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="33.75">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A3:B3"/>

--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A59B0-2E33-4B2F-AE09-EBDC722E1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9BE04-6942-4BB2-94C3-C492AFA5BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
     <sheet name="設定" sheetId="2" r:id="rId2"/>
+    <sheet name="リストテンプレート" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -592,10 +593,13 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -619,7 +623,7 @@
   </sheetPr>
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -832,4 +836,23 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E05EC6-7B22-4EBC-921D-118534D3640B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9BE04-6942-4BB2-94C3-C492AFA5BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243543B9-9FC7-4588-97DB-4642D49842D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>初期設定</t>
   </si>
@@ -65,9 +65,6 @@
 継続期間</t>
   </si>
   <si>
-    <t>6+</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 継続プラン金額</t>
   </si>
@@ -76,9 +73,6 @@
 継続可能条件</t>
   </si>
   <si>
-    <t>連続</t>
-  </si>
-  <si>
     <t>(※)設定例は下記のとおりです</t>
   </si>
   <si>
@@ -100,30 +94,6 @@
   <si>
     <t xml:space="preserve">
 対象となるプランの支援金額を入力してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支援者名</t>
-    <rPh sb="0" eb="4">
-      <t>シエンシャメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象か？</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-対象となるプランの継続期間を入力してください(※)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-継続判定に必要な条件を「累積」「連続」の2種類から選んでください(※)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,6 +136,40 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+継続判定に必要な条件を「継続」「累積」の2種類から選んでください(※)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象となるプランの継続期間を入力してください(※)
+継続期間ごとなら「半角数字」、継続期間以上なら「半角数字+」と入力してください</t>
+    <rPh sb="26" eb="30">
+      <t>ケイゾクキカン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="41" eb="47">
+      <t>ケイゾクキカンイジョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累積</t>
   </si>
 </sst>
 </file>
@@ -268,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,6 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -590,24 +595,43 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B2:C2"/>
+  <dimension ref="D2:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="7" width="8.875" customWidth="1"/>
+    <col min="16" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
+    <row r="2" spans="4:26">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -623,8 +647,8 @@
   </sheetPr>
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -645,10 +669,10 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -658,10 +682,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="33.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -669,21 +693,21 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="33.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="33.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -707,25 +731,25 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="33.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9">
+        <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>24</v>
@@ -733,47 +757,47 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10">
+        <v>100</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.75">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="33.75">
-      <c r="A12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="33.75">
-      <c r="A13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -783,7 +807,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -792,7 +816,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -801,7 +825,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
@@ -810,7 +834,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -831,7 +855,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{828B7704-670B-46E4-875B-BD6482826AFF}">
-      <formula1>"連続,累積"</formula1>
+      <formula1>"継続,累積"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E05EC6-7B22-4EBC-921D-118534D3640B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243543B9-9FC7-4588-97DB-4642D49842D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8746A4-2B69-4E3F-A63E-F039BE498722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="リスト" sheetId="1" r:id="rId1"/>
-    <sheet name="設定" sheetId="2" r:id="rId2"/>
-    <sheet name="リストテンプレート" sheetId="3" r:id="rId3"/>
+    <sheet name="設定" sheetId="2" r:id="rId1"/>
+    <sheet name="リスト" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>初期設定</t>
   </si>
@@ -167,9 +166,6 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>累積</t>
   </si>
 </sst>
 </file>
@@ -272,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,7 +301,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -591,65 +586,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="D2:Z2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="7" width="8.875" customWidth="1"/>
-    <col min="16" max="26" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:26">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6A31C-8FBF-4592-8FC7-1D10A5FF7580}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -669,10 +612,10 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -682,10 +625,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="33.75">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -693,10 +636,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="33.75">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8" t="s">
         <v>20</v>
@@ -704,10 +647,10 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="33.75">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -731,10 +674,10 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
@@ -744,52 +687,44 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="33.75">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10">
-        <v>100</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="33.75">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="33.75">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9">
-        <v>12</v>
-      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
@@ -854,7 +789,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{828B7704-670B-46E4-875B-BD6482826AFF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"継続,累積"</formula1>
     </dataValidation>
   </dataValidations>
@@ -862,21 +797,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E05EC6-7B22-4EBC-921D-118534D3640B}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8746A4-2B69-4E3F-A63E-F039BE498722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F21D0-E85C-46BE-A5F8-C1877C34C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,9 @@
   </sheetPr>
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>

--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F21D0-E85C-46BE-A5F8-C1877C34C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA110089-7C6D-488F-B288-A0A6180B0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="2" r:id="rId1"/>
@@ -92,11 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-対象となるプランの支援金額を入力してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 FANBOXにログインする際のパスワードを入力してください</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,40 +100,6 @@
     <rPh sb="0" eb="4">
       <t>シュトクツキスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-現在の取得年月を基準として過去何か月分の情報を取得したいかを入力してください</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>シュトクネンゲツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>カコナン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゲツブン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-継続判定に必要な条件を「継続」「累積」の2種類から選んでください(※)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -163,6 +124,57 @@
       <t>スウジ</t>
     </rPh>
     <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+継続判定に必要な条件を「連続」「累積」の2種類から選んでください(※)</t>
+    <rPh sb="13" eb="15">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象となるプランの支援金額を入力してください
+指定金額だけが対象なら「半角数字」、指定金額以上が対象なら「半角数字+」と入力してください</t>
+    <rPh sb="23" eb="27">
+      <t>シテイキンガク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+現在の取得年月を基準として過去何か月分の情報を取得したいかを半角数字で入力してください</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シュトクネンゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カコナン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲツブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -172,9 +184,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -268,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,9 +302,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -592,9 +598,7 @@
   </sheetPr>
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -614,10 +618,10 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -627,10 +631,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="33.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -638,21 +642,21 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="33.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="33.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -676,10 +680,10 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
@@ -689,51 +693,51 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="33.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="33.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="33.75">
-      <c r="A13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="12"/>
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
@@ -743,7 +747,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
@@ -752,7 +756,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
@@ -761,7 +765,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="5"/>
@@ -770,7 +774,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5"/>
@@ -792,7 +796,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"継続,累積"</formula1>
+      <formula1>"連続,累積"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,5 +813,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA110089-7C6D-488F-B288-A0A6180B0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5E2C3-B3C3-4E3A-8AF7-F405EEA640AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>初期設定</t>
   </si>
@@ -175,6 +175,50 @@
       <t>ハンカクスウジ</t>
     </rPh>
     <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCユーザー名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>PCにログインしているユーザー名を入力してください
+C:\Users\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\Desktop　のXXXXの部分を入力してください</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -184,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +269,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -596,7 +648,7 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,93 +715,95 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:5" ht="33.75">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="24.75">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5" ht="24.75">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="33.75">
-      <c r="A10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75">
       <c r="A11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="33.75">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="33.75">
       <c r="A13" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="33.75">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -757,7 +811,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -766,7 +820,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
@@ -775,27 +829,37 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"連続,累積"</formula1>
     </dataValidation>
   </dataValidations>
@@ -813,6 +877,5 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5E2C3-B3C3-4E3A-8AF7-F405EEA640AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F88052-7C98-4F33-8CA9-A568E1BD8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="設定" sheetId="2" r:id="rId1"/>
-    <sheet name="リスト" sheetId="3" r:id="rId2"/>
+    <sheet name="使い方" sheetId="4" r:id="rId1"/>
+    <sheet name="設定" sheetId="2" r:id="rId2"/>
+    <sheet name="リスト" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>初期設定</t>
   </si>
@@ -196,9 +197,10 @@
         <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>XXXX</t>
     </r>
@@ -206,9 +208,10 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="メイリオ"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>\Desktop　のXXXXの部分を入力してください</t>
     </r>
@@ -223,12 +226,316 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設定」シートで説明に従って以下の初期設定内容を入力する</t>
+  </si>
+  <si>
+    <t>PCユーザー名</t>
+  </si>
+  <si>
+    <t>継続期間</t>
+  </si>
+  <si>
+    <t>継続プラン金額</t>
+  </si>
+  <si>
+    <t>継続可能条件</t>
+  </si>
+  <si>
+    <t>取得月数</t>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設定」シートで説明に従って以下の抽出設定内容をすべて半角もしくは選択肢で入力する</t>
+  </si>
+  <si>
+    <t>「入出力フォーマット.xlsx」を保存して閉じる</t>
+  </si>
+  <si>
+    <t>※閉じないと実行できないので注意！</t>
+  </si>
+  <si>
+    <t>「scrapingFanbox.bat」を実行</t>
+  </si>
+  <si>
+    <t>※実行して表示される黒い画面に「loadConfig excelize.Save err」と表示された際は、ウィルスソフトに弾かれているので</t>
+  </si>
+  <si>
+    <t>　ウィルスソフトの「プロセスの除外」など、に「exe」フォルダに入っている「scrapingFanbox.exe」のフォルダパスを指定してください</t>
+  </si>
+  <si>
+    <t>「入出力フォーマット.xlsx」の「リスト」シートに結果が出力される</t>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足（継続条件の設定について）</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイゾクジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の支払い履歴だった支援者について支援金額1000で実行するパターンを例にします</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シエンシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①2023/7に実行した場合</t>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②2023/8に実行した場合</t>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>継続期間:6 継続可能条件:累積の場合　⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（実行した2024/7で累計6ヶ月をちょうど達成したため）</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ルイケイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>継続期間:6 継続可能条件:連続の場合　⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対象外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（2023/2に支援していないため）</t>
+    </r>
+    <rPh sb="32" eb="34">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>継続期間:6 継続可能条件:連続の場合　⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（連続で6ヶ月をちょうど達成したため）</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>継続期間:6 継続可能条件:累積の場合　⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対象外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（2024/7で達成し、支援1ヶ月目の判定になるため）</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゲツメ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy/m"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,40 +553,73 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -329,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,11 +690,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +705,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -644,13 +986,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DE054D-77D1-4D26-A289-7F040C4640FE}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="3.125" customWidth="1"/>
+    <col min="3" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30">
+      <c r="A23" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="14">
+        <v>44927</v>
+      </c>
+      <c r="D25" s="14">
+        <v>44958</v>
+      </c>
+      <c r="E25" s="14">
+        <v>44986</v>
+      </c>
+      <c r="F25" s="14">
+        <v>45017</v>
+      </c>
+      <c r="G25" s="14">
+        <v>45047</v>
+      </c>
+      <c r="H25" s="14">
+        <v>45078</v>
+      </c>
+      <c r="I25" s="14">
+        <v>45108</v>
+      </c>
+      <c r="J25" s="14">
+        <v>45139</v>
+      </c>
+      <c r="K25" s="14">
+        <v>45170</v>
+      </c>
+      <c r="L25" s="14">
+        <v>45200</v>
+      </c>
+      <c r="M25" s="14">
+        <v>45231</v>
+      </c>
+      <c r="N25" s="14">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6A31C-8FBF-4592-8FC7-1D10A5FF7580}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -660,7 +1227,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="24.75">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -687,8 +1254,8 @@
         <v>4</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -698,8 +1265,8 @@
         <v>6</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4"/>
@@ -709,8 +1276,8 @@
         <v>7</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4"/>
@@ -720,8 +1287,8 @@
         <v>25</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4"/>
@@ -733,7 +1300,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="24.75">
+    <row r="9" spans="1:5" ht="25.5">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -760,8 +1327,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="4"/>
@@ -771,8 +1338,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4"/>
@@ -782,8 +1349,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4"/>
@@ -793,8 +1360,8 @@
         <v>20</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="4"/>
@@ -804,7 +1371,9 @@
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
@@ -867,13 +1436,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F88052-7C98-4F33-8CA9-A568E1BD8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F874241-68C2-43BD-A9A6-5F8B25D19643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>初期設定</t>
   </si>
@@ -527,13 +527,75 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>当月で達成していなくても対象に含めるか</t>
+    <rPh sb="0" eb="2">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した継続期間の達成を、現在の取得年月より過去に達成した場合でも対象として含めるかどうかを「含める」「含めない」の2種類から選んでください</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ケイゾクキカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シュトクネンゲツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -699,14 +761,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1001,7 +1063,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1101,7 +1163,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="30">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1109,40 +1171,40 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>44927</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>44958</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>44986</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>45017</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>45047</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>45078</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="12">
         <v>45108</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <v>45139</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="12">
         <v>45170</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="12">
         <v>45200</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="12">
         <v>45231</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="12">
         <v>45261</v>
       </c>
     </row>
@@ -1215,7 +1277,7 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1237,10 +1299,10 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1250,10 +1312,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="33.75">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>5</v>
@@ -1261,10 +1323,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="33.75">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>19</v>
@@ -1272,10 +1334,10 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="33.75">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
@@ -1283,10 +1345,10 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="33.75">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>26</v>
@@ -1310,10 +1372,10 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1323,10 +1385,10 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>21</v>
@@ -1334,10 +1396,10 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="33.75">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -1345,10 +1407,10 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="33.75">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
         <v>22</v>
@@ -1356,40 +1418,42 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="33.75">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:5" ht="33.75">
+      <c r="A15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
@@ -1398,7 +1462,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -1407,14 +1471,24 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -1427,9 +1501,12 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"連続,累積"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{A856F354-CDB4-4A6C-86F2-A6EED601CFC2}">
+      <formula1>"含める,含めない"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/入出力フォーマット.xlsx
+++ b/入出力フォーマット.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\scrapingFanbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F874241-68C2-43BD-A9A6-5F8B25D19643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE277E-0E36-4083-928A-76399098A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使い方" sheetId="4" r:id="rId1"/>
-    <sheet name="設定" sheetId="2" r:id="rId2"/>
-    <sheet name="リスト" sheetId="3" r:id="rId3"/>
+    <sheet name="リスト" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,208 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
-  <si>
-    <t>初期設定</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>入力欄</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>メールアドレス</t>
   </si>
   <si>
-    <t xml:space="preserve">
-FANBOXにログインする際のメールアドレスを入力してください</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
     <t>クリエイターID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FANBOXで設定しているクリエイターIDを入力してください</t>
-  </si>
-  <si>
-    <t>継続条件設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-継続期間</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-継続プラン金額</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-継続可能条件</t>
-  </si>
-  <si>
-    <t>(※)設定例は下記のとおりです</t>
-  </si>
-  <si>
-    <t>継続期間:6 継続可能条件:連続の場合：前回特典を受け取ってから（または加入してから）、連続で６か月の間、指定の金額のプランを継続していた方が抽出されます</t>
-  </si>
-  <si>
-    <t>継続期間:6 継続可能条件:累積：前回特典を受け取ってから（または加入してから）、累積で６か月の間、指定の金額のプランを購入していた方が抽出されます</t>
-  </si>
-  <si>
-    <t>継続期間:6+ 継続可能条件:連続：連続で６か月以上、指定の金額のプランを継続していた方が抽出されます</t>
-  </si>
-  <si>
-    <t>継続期間:6+ 継続可能条件:累積：累積で６か月以上、指定の金額のプランを継続していた方が抽出されます</t>
-  </si>
-  <si>
-    <t>説明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FANBOXにログインする際のパスワードを入力してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得月数</t>
-    <rPh sb="0" eb="4">
-      <t>シュトクツキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象となるプランの継続期間を入力してください(※)
-継続期間ごとなら「半角数字」、継続期間以上なら「半角数字+」と入力してください</t>
-    <rPh sb="26" eb="30">
-      <t>ケイゾクキカン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="41" eb="47">
-      <t>ケイゾクキカンイジョウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-継続判定に必要な条件を「連続」「累積」の2種類から選んでください(※)</t>
-    <rPh sb="13" eb="15">
-      <t>レンゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象となるプランの支援金額を入力してください
-指定金額だけが対象なら「半角数字」、指定金額以上が対象なら「半角数字+」と入力してください</t>
-    <rPh sb="23" eb="27">
-      <t>シテイキンガク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-現在の取得年月を基準として過去何か月分の情報を取得したいかを半角数字で入力してください</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>シュトクネンゲツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>カコナン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゲツブン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PCユーザー名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>PCにログインしているユーザー名を入力してください
-C:\Users\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XXXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\Desktop　のXXXXの部分を入力してください</t>
-    </r>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>「設定」シートで説明に従って以下の初期設定内容を入力する</t>
@@ -527,68 +333,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>当月で達成していなくても対象に含めるか</t>
-    <rPh sb="0" eb="2">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定した継続期間の達成を、現在の取得年月より過去に達成した場合でも対象として含めるかどうかを「含める」「含めない」の2種類から選んでください</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ケイゾクキカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>シュトクネンゲツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -597,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,49 +351,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -684,27 +385,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -712,63 +401,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1063,148 +704,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="11" t="s">
-        <v>42</v>
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="C17" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="C18" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30">
-      <c r="A23" s="11" t="s">
-        <v>47</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
         <v>44927</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="2">
         <v>44958</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="2">
         <v>44986</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="2">
         <v>45017</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="2">
         <v>45047</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="2">
         <v>45078</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="2">
         <v>45108</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="2">
         <v>45139</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="2">
         <v>45170</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="2">
         <v>45200</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="2">
         <v>45231</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="2">
         <v>45261</v>
       </c>
     </row>
@@ -1233,37 +874,37 @@
     </row>
     <row r="28" spans="1:14">
       <c r="C28" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="C31" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1273,257 +914,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6A31C-8FBF-4592-8FC7-1D10A5FF7580}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A2:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="34.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" ht="25.5">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="33.75">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="33.75">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="33.75">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="33.75">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="33.75">
-      <c r="A12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="33.75">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="33.75">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="33.75">
-      <c r="A15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"連続,累積"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{A856F354-CDB4-4A6C-86F2-A6EED601CFC2}">
-      <formula1>"含める,含めない"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
